--- a/test-case/plantillaBack.xlsx
+++ b/test-case/plantillaBack.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\git\APIFW\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -121,7 +121,16 @@
     <t>/users</t>
   </si>
   <si>
-    <t>{name:victor, job:leader}</t>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>{name:Edwin, job:zion resident}</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
 </sst>
 </file>
@@ -732,7 +741,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3">
         <v>200</v>
@@ -882,18 +891,62 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G7" s="3"/>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="3">
+        <v>204</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-case/plantillaBack.xlsx
+++ b/test-case/plantillaBack.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
     <sheet name="TC02" sheetId="2" r:id="rId2"/>
     <sheet name="TC03" sheetId="3" r:id="rId3"/>
+    <sheet name="TC04" sheetId="4" r:id="rId4"/>
+    <sheet name="TC05" sheetId="5" r:id="rId5"/>
+    <sheet name="TC06" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -131,6 +134,30 @@
   </si>
   <si>
     <t>{}</t>
+  </si>
+  <si>
+    <t>https://scrum-metrics.herokuapp.com/</t>
+  </si>
+  <si>
+    <t>Registrar usuario</t>
+  </si>
+  <si>
+    <t>{"name":"testv","email":"testv@test.com","username":"testv","password":"testv"}</t>
+  </si>
+  <si>
+    <t>/postuser</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>{"username":"testv","password":"testv"}</t>
+  </si>
+  <si>
+    <t>/userprojs</t>
+  </si>
+  <si>
+    <t>{"userid":""}</t>
   </si>
 </sst>
 </file>
@@ -740,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,4 +979,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="74.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3">
+        <v>201</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3">
+        <v>201</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3">
+        <v>200</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test-case/plantillaBack.xlsx
+++ b/test-case/plantillaBack.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PI01" sheetId="6" r:id="rId1"/>
+    <sheet name="PI02" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -50,21 +51,9 @@
     <t>status code</t>
   </si>
   <si>
-    <t>Validation type</t>
-  </si>
-  <si>
-    <t>validation value</t>
-  </si>
-  <si>
     <t>/api</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>id:2</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
@@ -78,16 +67,33 @@
   </si>
   <si>
     <t>Update Name</t>
+  </si>
+  <si>
+    <t>{"username":"EdwinRmz"}</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Show Profile Information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,17 +128,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,21 +420,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,58 +462,128 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
